--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mustafa/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mustafa/P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -833,7 +833,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1063,25 +1063,25 @@
         <v>42773</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4280,35 +4280,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -830,10 +830,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1093,25 +1093,25 @@
         <v>42774</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1123,25 +1123,25 @@
         <v>42775</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4280,35 +4280,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -830,10 +830,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1153,25 +1153,25 @@
         <v>42776</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4280,35 +4280,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -833,7 +833,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1243,25 +1243,25 @@
         <v>42779</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1273,25 +1273,25 @@
         <v>42780</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4280,35 +4280,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mustafa/P2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\Documents\GitHub\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Fremmøde Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Overview" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="21">
   <si>
     <t>Mustafa</t>
   </si>
@@ -89,11 +89,14 @@
   <si>
     <t>Aftalt</t>
   </si>
+  <si>
+    <t>Eksamen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d"/>
   </numFmts>
@@ -830,20 +833,20 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="9" width="15.6640625" customWidth="1"/>
+    <col min="3" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
@@ -873,7 +876,7 @@
       </c>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -904,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -934,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -964,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -994,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1024,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1054,7 +1057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1084,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1114,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1144,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1174,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1204,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1234,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1264,7 +1267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1294,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1303,28 +1306,28 @@
         <v>42781</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1354,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1384,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1414,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1444,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1474,7 +1477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1504,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1534,7 +1537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1564,7 +1567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1594,7 +1597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1624,7 +1627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1654,7 +1657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1684,7 +1687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1714,7 +1717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1744,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1774,7 +1777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1804,7 +1807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1834,7 +1837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -1864,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -1894,7 +1897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -1924,7 +1927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -1954,7 +1957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -1984,7 +1987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2014,7 +2017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2044,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2074,7 +2077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2104,7 +2107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2134,7 +2137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2164,7 +2167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2194,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2224,7 +2227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2254,7 +2257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2284,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2314,7 +2317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2344,7 +2347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2374,7 +2377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2404,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2434,7 +2437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2464,7 +2467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2494,7 +2497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2524,7 +2527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2554,7 +2557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2584,7 +2587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2614,7 +2617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2644,7 +2647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2674,7 +2677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2704,7 +2707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2734,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2764,7 +2767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2794,7 +2797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2824,7 +2827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2854,7 +2857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2884,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -2914,7 +2917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -2944,7 +2947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -2974,7 +2977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3004,7 +3007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3034,7 +3037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3064,7 +3067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3094,7 +3097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3124,7 +3127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3154,7 +3157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3184,7 +3187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3214,7 +3217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3244,7 +3247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3274,7 +3277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3304,7 +3307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3334,7 +3337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3364,7 +3367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3394,7 +3397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3424,7 +3427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3454,7 +3457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3484,7 +3487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3514,7 +3517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3544,7 +3547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3574,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3604,7 +3607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3634,7 +3637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3664,7 +3667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3694,7 +3697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3724,7 +3727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3754,7 +3757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3784,7 +3787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3814,7 +3817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3844,7 +3847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3874,7 +3877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3904,7 +3907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3934,7 +3937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -3964,7 +3967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -3994,7 +3997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4024,7 +4027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4054,7 +4057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4084,7 +4087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4114,7 +4117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4144,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>21</v>
@@ -4174,7 +4177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>21</v>
@@ -4239,13 +4242,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -4274,17 +4277,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
@@ -4292,15 +4295,15 @@
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
@@ -4308,13 +4311,13 @@
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4405,7 +4408,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
@@ -4416,7 +4419,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -4427,7 +4430,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -4438,7 +4441,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4449,7 +4452,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4461,7 +4464,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4472,7 +4475,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4483,7 +4486,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -4494,7 +4497,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -4505,7 +4508,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4516,7 +4519,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -4527,7 +4530,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\Documents\GitHub\P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mustafa/P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14625"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Fremmøde Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Overview" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="22">
   <si>
     <t>Mustafa</t>
   </si>
@@ -92,15 +92,18 @@
   <si>
     <t>Eksamen</t>
   </si>
+  <si>
+    <t>Ferie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -150,13 +153,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,6 +225,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -832,21 +861,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="9" width="15.7109375" customWidth="1"/>
+    <col min="3" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
@@ -876,7 +905,7 @@
       </c>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -907,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -937,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -967,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -997,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1027,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1057,7 +1086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1087,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1117,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1147,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1177,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1207,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1237,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1267,7 +1296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1297,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1311,7 +1340,7 @@
       <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1323,11 +1352,11 @@
       <c r="H16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1336,28 +1365,28 @@
         <v>42782</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1374,8 +1403,8 @@
       <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>6</v>
+      <c r="F18" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>6</v>
@@ -1387,7 +1416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1417,7 +1446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1447,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1464,8 +1493,8 @@
       <c r="E21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
+      <c r="F21" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>6</v>
@@ -1477,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1494,8 +1523,8 @@
       <c r="E22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>6</v>
+      <c r="F22" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>6</v>
@@ -1507,7 +1536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1524,8 +1553,8 @@
       <c r="E23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>6</v>
+      <c r="F23" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>6</v>
@@ -1537,7 +1566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1554,8 +1583,8 @@
       <c r="E24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>6</v>
+      <c r="F24" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>6</v>
@@ -1567,7 +1596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1584,8 +1613,8 @@
       <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>6</v>
+      <c r="F25" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>6</v>
@@ -1597,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1627,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1657,7 +1686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1687,7 +1716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1717,7 +1746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1747,7 +1776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1777,7 +1806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1807,7 +1836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1837,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -1867,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -1897,7 +1926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -1927,7 +1956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -1957,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -1987,7 +2016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2017,7 +2046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2047,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2077,7 +2106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2107,7 +2136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2137,7 +2166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2167,7 +2196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2197,7 +2226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2227,7 +2256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2257,7 +2286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2287,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2317,7 +2346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2347,7 +2376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2377,7 +2406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2407,7 +2436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2437,7 +2466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2467,7 +2496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2497,7 +2526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2527,7 +2556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2557,7 +2586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2587,7 +2616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2617,7 +2646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2647,7 +2676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2677,7 +2706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2707,7 +2736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2737,7 +2766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2767,7 +2796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2797,7 +2826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2827,7 +2856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2857,7 +2886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2887,7 +2916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -2917,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -2947,7 +2976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -2977,7 +3006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3007,7 +3036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3037,7 +3066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3067,7 +3096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3097,7 +3126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3127,7 +3156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3157,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3187,7 +3216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3217,7 +3246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3247,7 +3276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3277,7 +3306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3307,7 +3336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3337,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3367,7 +3396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3397,7 +3426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3427,7 +3456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3457,7 +3486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3487,7 +3516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3517,7 +3546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3547,7 +3576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3577,7 +3606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3607,7 +3636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3637,7 +3666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3667,7 +3696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3697,7 +3726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3727,7 +3756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3757,7 +3786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3787,7 +3816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3817,7 +3846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3847,7 +3876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3877,7 +3906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3907,7 +3936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3937,7 +3966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -3967,7 +3996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -3997,7 +4026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4027,7 +4056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4057,7 +4086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4087,7 +4116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4117,7 +4146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4147,7 +4176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>21</v>
@@ -4177,7 +4206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>21</v>
@@ -4242,13 +4271,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -4277,21 +4306,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
@@ -4299,25 +4328,25 @@
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4357,7 +4386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -4397,7 +4426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4408,7 +4437,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
@@ -4419,7 +4448,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -4430,7 +4459,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -4441,7 +4470,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4452,7 +4481,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4464,7 +4493,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4475,7 +4504,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4486,7 +4515,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -4497,7 +4526,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -4508,7 +4537,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4519,7 +4548,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -4530,7 +4559,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -240,7 +240,173 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -441,89 +607,6 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -543,20 +626,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="20">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="7"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
-    <tableColumn id="7" name="Mark" dataDxfId="2"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
+    <tableColumn id="2" name="Dato" dataDxfId="19"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="18"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="17"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="16"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="15"/>
+    <tableColumn id="7" name="Mark" dataDxfId="14"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="13"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,10 +945,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1395,25 +1478,25 @@
         <v>42783</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4238,22 +4321,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I112">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4312,11 +4395,11 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
@@ -4328,19 +4411,19 @@
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -240,173 +240,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -607,6 +441,89 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -626,20 +543,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="20">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="19"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="18"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="17"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="16"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="15"/>
-    <tableColumn id="7" name="Mark" dataDxfId="14"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="13"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="12"/>
+    <tableColumn id="2" name="Dato" dataDxfId="7"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
+    <tableColumn id="7" name="Mark" dataDxfId="2"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -945,10 +862,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1568,25 +1485,25 @@
         <v>42786</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4321,22 +4238,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I112">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4395,15 +4312,15 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
@@ -4411,19 +4328,19 @@
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="24">
   <si>
     <t>Mustafa</t>
   </si>
@@ -95,6 +95,12 @@
   <si>
     <t>Ferie</t>
   </si>
+  <si>
+    <t>Mødt / kl. 10:05</t>
+  </si>
+  <si>
+    <t>Mødt / kl. 10:10</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -158,8 +164,20 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,11 +211,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BC2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -236,11 +273,431 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -441,89 +898,6 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -543,20 +917,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="38">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="7"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
-    <tableColumn id="7" name="Mark" dataDxfId="2"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
+    <tableColumn id="2" name="Dato" dataDxfId="37"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="36"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="35"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="34"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="33"/>
+    <tableColumn id="7" name="Mark" dataDxfId="32"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="31"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -865,7 +1239,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1515,25 +1889,25 @@
         <v>42787</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1545,25 +1919,25 @@
         <v>42788</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>6</v>
+      <c r="G23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -1575,25 +1949,25 @@
         <v>42789</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4237,23 +4611,23 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:I112">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
+  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I112">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4312,15 +4686,15 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
@@ -4328,19 +4702,19 @@
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -96,10 +96,10 @@
     <t>Ferie</t>
   </si>
   <si>
-    <t>Mødt / kl. 10:05</t>
+    <t>Forsinket / kl. 10:10</t>
   </si>
   <si>
-    <t>Mødt / kl. 10:10</t>
+    <t>Forsinket / kl. 10:05</t>
   </si>
 </sst>
 </file>
@@ -282,173 +282,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -898,6 +732,89 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -917,20 +834,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="38">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="26">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="37"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="36"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="35"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="34"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="33"/>
-    <tableColumn id="7" name="Mark" dataDxfId="32"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="31"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="30"/>
+    <tableColumn id="2" name="Dato" dataDxfId="25"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="24"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="23"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="22"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="21"/>
+    <tableColumn id="7" name="Mark" dataDxfId="20"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="19"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1236,10 +1153,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1936,8 +1853,8 @@
       <c r="H23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>19</v>
+      <c r="I23" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -1952,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
@@ -1964,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>2</v>
@@ -4612,23 +4529,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I22 C23 F23 C24:I112">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="31" priority="10" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Aftalt">
+      <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Mødt">
+      <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Kom ikke">
+      <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="forsinket">
+      <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Weekend">
+      <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Ikke registreret">
+      <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4690,7 +4627,7 @@
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
@@ -4706,7 +4643,7 @@
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
@@ -4714,7 +4651,7 @@
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -4770,7 +4707,7 @@
       </c>
       <c r="C4" s="7">
         <f>COUNTIF('Fremmøde Stats'!D4:D74, J4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
         <f>COUNTIF('Fremmøde Stats'!E4:E74, J4)</f>
@@ -4786,7 +4723,7 @@
       </c>
       <c r="G4" s="7">
         <f>COUNTIF('Fremmøde Stats'!H4:H74, J4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
         <f>COUNTIF('Fremmøde Stats'!I4:I74, J4)</f>
@@ -4794,7 +4731,7 @@
       </c>
       <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>11</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="26">
   <si>
     <t>Mustafa</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Forsinket / kl. 10:05</t>
+  </si>
+  <si>
+    <t>Forsinket / 9:45</t>
+  </si>
+  <si>
+    <t>Forsinket / 9:30</t>
   </si>
 </sst>
 </file>
@@ -282,256 +288,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <b val="0"/>
@@ -815,6 +572,89 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -834,20 +674,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="26">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="25"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="24"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="23"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="22"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="21"/>
-    <tableColumn id="7" name="Mark" dataDxfId="20"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="19"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="18"/>
+    <tableColumn id="2" name="Dato" dataDxfId="7"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
+    <tableColumn id="7" name="Mark" dataDxfId="2"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1153,10 +993,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1896,25 +1736,25 @@
         <v>42790</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4529,42 +4369,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I22 C23 F23 C24:I112">
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="10" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4623,11 +4463,11 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
@@ -4639,11 +4479,11 @@
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
@@ -4651,7 +4491,7 @@
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -4711,7 +4551,7 @@
       </c>
       <c r="D4" s="7">
         <f>COUNTIF('Fremmøde Stats'!E4:E74, J4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
         <f>COUNTIF('Fremmøde Stats'!F4:F74, J4)</f>
@@ -4727,11 +4567,11 @@
       </c>
       <c r="H4" s="7">
         <f>COUNTIF('Fremmøde Stats'!I4:I74, J4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>11</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="27">
   <si>
     <t>Mustafa</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Forsinket / 9:30</t>
+  </si>
+  <si>
+    <t>Forsinket / 10:50</t>
   </si>
 </sst>
 </file>
@@ -993,10 +996,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1745,7 +1748,7 @@
         <v>25</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>2</v>
@@ -4555,7 +4558,7 @@
       </c>
       <c r="E4" s="7">
         <f>COUNTIF('Fremmøde Stats'!F4:F74, J4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7">
         <f>COUNTIF('Fremmøde Stats'!G4:G74, J4)</f>
@@ -4571,7 +4574,7 @@
       </c>
       <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>11</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="28">
   <si>
     <t>Mustafa</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Forsinket / 10:50</t>
+  </si>
+  <si>
+    <t>Kom ikke / Syg</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1002,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1829,25 +1832,25 @@
         <v>42793</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4466,7 +4469,7 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
@@ -4474,27 +4477,27 @@
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -4510,7 +4513,7 @@
       </c>
       <c r="C3" s="7">
         <f>COUNTIF('Fremmøde Stats'!D3:D74, J3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7">
         <f>COUNTIF('Fremmøde Stats'!E3:E74, J3)</f>
@@ -4534,7 +4537,7 @@
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="29">
   <si>
     <t>Mustafa</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Kom ikke / Syg</t>
+  </si>
+  <si>
+    <t>Mødt / Smuttet 13:05</t>
   </si>
 </sst>
 </file>
@@ -1002,14 +1005,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="9" width="15.6640625" customWidth="1"/>
+    <col min="3" max="9" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1823,7 +1826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1850,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -297,7 +297,90 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -683,20 +766,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="14">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="7"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
-    <tableColumn id="7" name="Mark" dataDxfId="2"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
+    <tableColumn id="2" name="Dato" dataDxfId="13"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="12"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="11"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="10"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="9"/>
+    <tableColumn id="7" name="Mark" dataDxfId="8"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="7"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1002,10 +1085,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1826,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1865,25 +1948,25 @@
         <v>42794</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -1895,25 +1978,25 @@
         <v>42795</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -1925,25 +2008,25 @@
         <v>42796</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4378,42 +4461,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I22 C23 F23 C24:I112">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4429,7 +4512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4472,35 +4557,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -4524,7 +4609,7 @@
       </c>
       <c r="E3" s="7">
         <f>COUNTIF('Fremmøde Stats'!F3:F74, J3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7">
         <f>COUNTIF('Fremmøde Stats'!G3:G74, J3)</f>
@@ -4540,7 +4625,7 @@
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>
@@ -4587,7 +4672,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -297,90 +297,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <b val="0"/>
@@ -766,20 +683,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="14">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="13"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="12"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="11"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="10"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="9"/>
-    <tableColumn id="7" name="Mark" dataDxfId="8"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="7"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="6"/>
+    <tableColumn id="2" name="Dato" dataDxfId="7"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
+    <tableColumn id="7" name="Mark" dataDxfId="2"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1088,7 +1005,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2038,25 +1955,25 @@
         <v>42797</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4461,42 +4378,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I22 C23 F23 C24:I112">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4557,35 +4474,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="32">
   <si>
     <t>Mustafa</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Mødt / Smuttet 13:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kom ikke / indbrud </t>
+  </si>
+  <si>
+    <t>Forsinket / 11:25</t>
+  </si>
+  <si>
+    <t>Forsinket / 11:20</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1011,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2045,25 +2054,25 @@
         <v>42800</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2075,25 +2084,25 @@
         <v>42801</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2105,25 +2114,25 @@
         <v>42802</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2135,25 +2144,25 @@
         <v>42803</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2165,25 +2174,25 @@
         <v>42804</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2255,25 +2264,25 @@
         <v>42807</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2285,25 +2294,25 @@
         <v>42808</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2333,7 +2342,7 @@
         <v>6</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4474,35 +4483,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -4530,7 +4539,7 @@
       </c>
       <c r="F3" s="7">
         <f>COUNTIF('Fremmøde Stats'!G3:G74, J3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="7">
         <f>COUNTIF('Fremmøde Stats'!H3:H74, J3)</f>
@@ -4538,11 +4547,11 @@
       </c>
       <c r="H3" s="7">
         <f>COUNTIF('Fremmøde Stats'!I3:I74, J3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>
@@ -4562,7 +4571,7 @@
       </c>
       <c r="D4" s="7">
         <f>COUNTIF('Fremmøde Stats'!E4:E74, J4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7">
         <f>COUNTIF('Fremmøde Stats'!F4:F74, J4)</f>
@@ -4574,7 +4583,7 @@
       </c>
       <c r="G4" s="7">
         <f>COUNTIF('Fremmøde Stats'!H4:H74, J4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="7">
         <f>COUNTIF('Fremmøde Stats'!I4:I74, J4)</f>
@@ -4582,7 +4591,7 @@
       </c>
       <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>11</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="33">
   <si>
     <t>Mustafa</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Forsinket / 11:20</t>
+  </si>
+  <si>
+    <t>Forsinket / 9:25</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1014,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2324,22 +2327,22 @@
         <v>42809</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -2354,25 +2357,25 @@
         <v>42810</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2384,25 +2387,25 @@
         <v>42811</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2474,25 +2477,25 @@
         <v>42814</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2504,25 +2507,25 @@
         <v>42815</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2534,25 +2537,25 @@
         <v>42816</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2564,25 +2567,25 @@
         <v>42817</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4483,35 +4486,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -4571,7 +4574,7 @@
       </c>
       <c r="D4" s="7">
         <f>COUNTIF('Fremmøde Stats'!E4:E74, J4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7">
         <f>COUNTIF('Fremmøde Stats'!F4:F74, J4)</f>
@@ -4591,7 +4594,7 @@
       </c>
       <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>11</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="35">
   <si>
     <t>Mustafa</t>
   </si>
@@ -128,6 +128,12 @@
   <si>
     <t>Forsinket / 9:25</t>
   </si>
+  <si>
+    <t>Forsinket / 10:22</t>
+  </si>
+  <si>
+    <t>Forsinket / 10:21</t>
+  </si>
 </sst>
 </file>
 
@@ -204,7 +210,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +235,12 @@
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -250,12 +262,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -303,10 +317,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
@@ -1014,10 +1033,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2581,8 +2600,8 @@
       <c r="G52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>2</v>
+      <c r="H52" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>2</v>
@@ -2597,25 +2616,25 @@
         <v>42818</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4389,7 +4408,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I112">
+  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C53:I112 C52:G52 I52">
     <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
@@ -4486,35 +4505,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -4586,7 +4605,7 @@
       </c>
       <c r="G4" s="7">
         <f>COUNTIF('Fremmøde Stats'!H4:H74, J4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7">
         <f>COUNTIF('Fremmøde Stats'!I4:I74, J4)</f>
@@ -4594,7 +4613,7 @@
       </c>
       <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>11</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1036,7 +1036,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2706,25 +2706,25 @@
         <v>42821</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4505,11 +4505,11 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
@@ -4517,23 +4517,23 @@
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="D3" s="7">
         <f>COUNTIF('Fremmøde Stats'!E3:E74, J3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7">
         <f>COUNTIF('Fremmøde Stats'!F3:F74, J3)</f>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1036,7 +1036,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2736,25 +2736,25 @@
         <v>42822</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4505,11 +4505,11 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
@@ -4517,23 +4517,23 @@
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="D3" s="7">
         <f>COUNTIF('Fremmøde Stats'!E3:E74, J3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7">
         <f>COUNTIF('Fremmøde Stats'!F3:F74, J3)</f>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -262,8 +262,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -321,14 +323,4166 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="323">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -714,20 +4868,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="310" dataDxfId="309">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="308">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="7"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
-    <tableColumn id="7" name="Mark" dataDxfId="2"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
+    <tableColumn id="2" name="Dato" dataDxfId="307"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="306"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="305"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="304"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="303"/>
+    <tableColumn id="7" name="Mark" dataDxfId="302"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="301"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="300"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1033,10 +5187,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2766,25 +6920,25 @@
         <v>42823</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2796,25 +6950,25 @@
         <v>42824</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2826,25 +6980,25 @@
         <v>42825</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2916,25 +7070,25 @@
         <v>42828</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2946,25 +7100,25 @@
         <v>42829</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4408,44 +8562,64 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C53:I112 C52:G52 I52">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Aftalt">
+  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C65:I112 C64:F64 H64:I64">
+    <cfRule type="containsText" dxfId="322" priority="19" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="321" priority="20" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="320" priority="21" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="319" priority="22" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="318" priority="23" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="317" priority="24" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="316" priority="13" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="315" priority="14" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="314" priority="15" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="313" priority="16" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="312" priority="17" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="311" priority="18" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Aftalt">
+      <formula>NOT(ISERROR(SEARCH("Aftalt",G64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Mødt">
+      <formula>NOT(ISERROR(SEARCH(("Mødt"),(G64))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Kom ikke">
+      <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(G64))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="forsinket">
+      <formula>NOT(ISERROR(SEARCH(("forsinket"),(G64))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Weekend">
+      <formula>NOT(ISERROR(SEARCH(("Weekend"),(G64))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Ikke registreret">
+      <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4505,35 +8679,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -332,3410 +332,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="323">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="83">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4682,6 +1279,89 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4868,20 +1548,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="310" dataDxfId="309">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="308">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="62">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="307"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="306"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="305"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="304"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="303"/>
-    <tableColumn id="7" name="Mark" dataDxfId="302"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="301"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="300"/>
+    <tableColumn id="2" name="Dato" dataDxfId="61"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="60"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="59"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="58"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="57"/>
+    <tableColumn id="7" name="Mark" dataDxfId="56"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="55"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5187,10 +1867,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7130,25 +3810,25 @@
         <v>42830</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -7160,25 +3840,25 @@
         <v>42831</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -8562,63 +5242,63 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C65:I112 C64:F64 H64:I64">
-    <cfRule type="containsText" dxfId="322" priority="19" operator="containsText" text="Aftalt">
+  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I112">
+    <cfRule type="containsText" dxfId="82" priority="19" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="20" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="81" priority="20" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="21" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="80" priority="21" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="22" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="79" priority="22" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="23" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="78" priority="23" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="24" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="77" priority="24" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="316" priority="13" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="76" priority="13" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="14" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="75" priority="14" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="15" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="16" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="73" priority="16" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="17" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="18" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="71" priority="18" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",G64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="69" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8679,35 +5359,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -332,754 +332,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -1548,20 +801,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="62">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="61"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="60"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="59"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="58"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="57"/>
-    <tableColumn id="7" name="Mark" dataDxfId="56"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="55"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="54"/>
+    <tableColumn id="2" name="Dato" dataDxfId="7"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
+    <tableColumn id="7" name="Mark" dataDxfId="2"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1870,7 +1123,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3870,25 +3123,25 @@
         <v>42832</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3960,25 +3213,25 @@
         <v>42835</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -5243,62 +4496,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I112">
-    <cfRule type="containsText" dxfId="82" priority="19" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="20" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="21" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="22" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="23" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="24" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="76" priority="13" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="14" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="16" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="18" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",G64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5359,35 +4612,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -5411,7 +4664,7 @@
       </c>
       <c r="E3" s="7">
         <f>COUNTIF('Fremmøde Stats'!F3:F74, J3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="7">
         <f>COUNTIF('Fremmøde Stats'!G3:G74, J3)</f>
@@ -5427,7 +4680,7 @@
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1120,10 +1120,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3243,25 +3243,25 @@
         <v>42836</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3273,25 +3273,25 @@
         <v>42837</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4612,35 +4612,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="F3" s="7">
         <f>COUNTIF('Fremmøde Stats'!G3:G74, J3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="7">
         <f>COUNTIF('Fremmøde Stats'!H3:H74, J3)</f>
@@ -4676,11 +4676,11 @@
       </c>
       <c r="H3" s="7">
         <f>COUNTIF('Fremmøde Stats'!I3:I74, J3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1123,7 +1123,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomRight" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3303,25 +3303,25 @@
         <v>42838</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3333,25 +3333,25 @@
         <v>42839</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3423,25 +3423,25 @@
         <v>42842</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3453,25 +3453,25 @@
         <v>42843</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4612,15 +4612,15 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
@@ -4636,11 +4636,11 @@
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1123,7 +1123,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I79" sqref="I79"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3303,25 +3303,25 @@
         <v>42838</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3333,25 +3333,25 @@
         <v>42839</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3423,25 +3423,25 @@
         <v>42842</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3453,25 +3453,25 @@
         <v>42843</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4612,15 +4612,15 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
@@ -4636,11 +4636,11 @@
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -114,9 +114,6 @@
     <t>Kom ikke / Syg</t>
   </si>
   <si>
-    <t>Mødt / Smuttet 13:05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kom ikke / indbrud </t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Forsinket / 10:21</t>
+  </si>
+  <si>
+    <t>Forsinket / 11:40</t>
   </si>
 </sst>
 </file>
@@ -332,7 +332,671 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -801,20 +1465,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="56">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="7"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
-    <tableColumn id="7" name="Mark" dataDxfId="2"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
+    <tableColumn id="2" name="Dato" dataDxfId="55"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="54"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="53"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="52"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="51"/>
+    <tableColumn id="7" name="Mark" dataDxfId="50"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="49"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1120,10 +1784,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I79" sqref="I79"/>
+      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1971,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2205,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2</v>
@@ -2388,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>2</v>
@@ -2409,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>2</v>
@@ -2469,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>2</v>
@@ -2688,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>2</v>
@@ -2718,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>2</v>
@@ -3483,25 +4147,25 @@
         <v>42844</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3513,25 +4177,25 @@
         <v>42845</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3543,25 +4207,25 @@
         <v>42846</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3633,25 +4297,25 @@
         <v>42849</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4496,62 +5160,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I112">
-    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="75" priority="20" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="73" priority="22" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="72" priority="23" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="71" priority="24" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="68" priority="15" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="67" priority="16" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="65" priority="18" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",G64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="59" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4612,27 +5276,27 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
@@ -4640,7 +5304,7 @@
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -114,6 +114,9 @@
     <t>Kom ikke / Syg</t>
   </si>
   <si>
+    <t>Mødt / Smuttet 13:05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kom ikke / indbrud </t>
   </si>
   <si>
@@ -130,9 +133,6 @@
   </si>
   <si>
     <t>Forsinket / 10:21</t>
-  </si>
-  <si>
-    <t>Forsinket / 11:40</t>
   </si>
 </sst>
 </file>
@@ -332,671 +332,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -1465,20 +801,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="56">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="55"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="54"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="53"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="52"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="51"/>
-    <tableColumn id="7" name="Mark" dataDxfId="50"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="49"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="48"/>
+    <tableColumn id="2" name="Dato" dataDxfId="7"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
+    <tableColumn id="7" name="Mark" dataDxfId="2"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1784,10 +1120,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomRight" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2635,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2869,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2</v>
@@ -3052,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>2</v>
@@ -3073,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>2</v>
@@ -3133,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>2</v>
@@ -3352,7 +2688,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>2</v>
@@ -3382,7 +2718,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>2</v>
@@ -4147,25 +3483,25 @@
         <v>42844</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4177,25 +3513,25 @@
         <v>42845</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -4207,25 +3543,25 @@
         <v>42846</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4297,25 +3633,25 @@
         <v>42849</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5160,62 +4496,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I112">
-    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="20" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="22" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="23" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="24" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="15" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="16" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="18" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",G64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5276,27 +4612,27 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
@@ -5304,7 +4640,7 @@
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -332,671 +332,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -1465,20 +801,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="56">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="55"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="54"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="53"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="52"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="51"/>
-    <tableColumn id="7" name="Mark" dataDxfId="50"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="49"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="48"/>
+    <tableColumn id="2" name="Dato" dataDxfId="7"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
+    <tableColumn id="7" name="Mark" dataDxfId="2"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1787,7 +1123,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomRight" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4327,25 +3663,25 @@
         <v>42850</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5160,62 +4496,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I112">
-    <cfRule type="containsText" dxfId="76" priority="19" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="20" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="22" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="23" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="24" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="15" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="16" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="18" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",G64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5276,35 +4612,35 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="36">
   <si>
     <t>Mustafa</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Forsinket / 11:40</t>
+  </si>
+  <si>
+    <t>Forsinket / 09:28</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1123,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I85" sqref="I85"/>
+      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3693,25 +3696,25 @@
         <v>42851</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4612,23 +4615,23 @@
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="7">
         <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="7">
         <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7">
         <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="7">
         <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
@@ -4636,11 +4639,11 @@
       </c>
       <c r="H2" s="7">
         <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Fremmøde Stats" sheetId="1" r:id="rId1"/>
-    <sheet name="Overview" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="30">
   <si>
     <t>Mustafa</t>
   </si>
@@ -45,25 +44,7 @@
     <t>Weekend</t>
   </si>
   <si>
-    <t>Forsinket</t>
-  </si>
-  <si>
     <t>Ikke registreret</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>*Mødt*</t>
-  </si>
-  <si>
-    <t>*Kom ikke*</t>
-  </si>
-  <si>
-    <t>*Forsinket*</t>
   </si>
   <si>
     <t>Casper L</t>
@@ -145,37 +126,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -267,59 +225,41 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1123,10 +1063,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
+      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1137,34 +1077,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
@@ -1325,26 +1265,26 @@
       <c r="B7" s="2">
         <v>42772</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>19</v>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1536,25 +1476,25 @@
         <v>42779</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1601,8 +1541,8 @@
       <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>20</v>
+      <c r="E16" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>2</v>
@@ -1613,8 +1553,8 @@
       <c r="H16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>20</v>
+      <c r="I16" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1634,8 +1574,8 @@
       <c r="E17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>21</v>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2</v>
@@ -1661,11 +1601,11 @@
       <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>21</v>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>2</v>
@@ -1754,8 +1694,8 @@
       <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>21</v>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>2</v>
@@ -1784,8 +1724,8 @@
       <c r="E22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>21</v>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>2</v>
@@ -1793,8 +1733,8 @@
       <c r="H22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>20</v>
+      <c r="I22" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1806,25 +1746,25 @@
         <v>42788</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -1839,19 +1779,19 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>21</v>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>2</v>
@@ -1872,10 +1812,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>2</v>
@@ -1884,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -1959,7 +1899,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>2</v>
@@ -2025,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>2</v>
@@ -2055,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>2</v>
@@ -2208,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2</v>
@@ -2256,25 +2196,25 @@
         <v>42803</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2391,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>2</v>
@@ -2412,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>2</v>
@@ -2472,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>2</v>
@@ -2586,25 +2526,25 @@
         <v>42814</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2690,8 +2630,8 @@
       <c r="G52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="19" t="s">
-        <v>33</v>
+      <c r="H52" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>2</v>
@@ -2721,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>2</v>
@@ -2856,25 +2796,25 @@
         <v>42823</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2886,25 +2826,25 @@
         <v>42824</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3006,25 +2946,25 @@
         <v>42828</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3306,25 +3246,25 @@
         <v>42838</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3336,25 +3276,25 @@
         <v>42839</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3426,25 +3366,25 @@
         <v>42842</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3471,7 +3411,7 @@
         <v>2</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>2</v>
@@ -3504,7 +3444,7 @@
         <v>2</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3534,7 +3474,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3546,25 +3486,25 @@
         <v>42846</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3639,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>2</v>
@@ -3654,7 +3594,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3711,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>2</v>
@@ -3726,25 +3666,25 @@
         <v>42852</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3756,25 +3696,25 @@
         <v>42853</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3846,25 +3786,25 @@
         <v>42856</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3876,25 +3816,25 @@
         <v>42857</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3906,25 +3846,25 @@
         <v>42858</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3936,25 +3876,25 @@
         <v>42859</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3966,25 +3906,25 @@
         <v>42860</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4056,25 +3996,25 @@
         <v>42863</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4086,25 +4026,25 @@
         <v>42864</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4116,25 +4056,25 @@
         <v>42865</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4146,25 +4086,25 @@
         <v>42866</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4176,25 +4116,25 @@
         <v>42867</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4266,25 +4206,25 @@
         <v>42870</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4296,25 +4236,25 @@
         <v>42871</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4326,25 +4266,25 @@
         <v>42872</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4356,25 +4296,25 @@
         <v>42873</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4386,25 +4326,25 @@
         <v>42874</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4476,25 +4416,25 @@
         <v>42877</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4564,317 +4504,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7">
-        <f>COUNTIF('Fremmøde Stats'!C2:C112, J2)</f>
-        <v>49</v>
-      </c>
-      <c r="C2" s="7">
-        <f>COUNTIF('Fremmøde Stats'!D2:D112, J2)</f>
-        <v>46</v>
-      </c>
-      <c r="D2" s="7">
-        <f>COUNTIF('Fremmøde Stats'!E2:E112, J2)</f>
-        <v>42</v>
-      </c>
-      <c r="E2" s="7">
-        <f>COUNTIF('Fremmøde Stats'!F2:F112, J2)</f>
-        <v>39</v>
-      </c>
-      <c r="F2" s="7">
-        <f>COUNTIF('Fremmøde Stats'!G2:G112, J2)</f>
-        <v>46</v>
-      </c>
-      <c r="G2" s="7">
-        <f>COUNTIF('Fremmøde Stats'!H2:H112, J2)</f>
-        <v>43</v>
-      </c>
-      <c r="H2" s="7">
-        <f>COUNTIF('Fremmøde Stats'!I2:I112, J2)</f>
-        <v>41</v>
-      </c>
-      <c r="I2" s="7">
-        <f t="shared" ref="I2:I4" si="0">SUM(B2:H2)</f>
-        <v>306</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <f>COUNTIF('Fremmøde Stats'!C3:C74, J3)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <f>COUNTIF('Fremmøde Stats'!D3:D74, J3)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <f>COUNTIF('Fremmøde Stats'!E3:E74, J3)</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <f>COUNTIF('Fremmøde Stats'!F3:F74, J3)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="7">
-        <f>COUNTIF('Fremmøde Stats'!G3:G74, J3)</f>
-        <v>3</v>
-      </c>
-      <c r="G3" s="7">
-        <f>COUNTIF('Fremmøde Stats'!H3:H74, J3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <f>COUNTIF('Fremmøde Stats'!I3:I74, J3)</f>
-        <v>2</v>
-      </c>
-      <c r="I3" s="7">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
-        <f>COUNTIF('Fremmøde Stats'!C4:C74, J4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <f>COUNTIF('Fremmøde Stats'!D4:D74, J4)</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <f>COUNTIF('Fremmøde Stats'!E4:E74, J4)</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="7">
-        <f>COUNTIF('Fremmøde Stats'!F4:F74, J4)</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <f>COUNTIF('Fremmøde Stats'!G4:G74, J4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <f>COUNTIF('Fremmøde Stats'!H4:H74, J4)</f>
-        <v>4</v>
-      </c>
-      <c r="H4" s="7">
-        <f>COUNTIF('Fremmøde Stats'!I4:I74, J4)</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="31">
   <si>
     <t>Mustafa</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Forsinket / 09:28</t>
+  </si>
+  <si>
+    <t>Aftalt / OOP</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,422 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -744,20 +1162,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="38">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="7"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
-    <tableColumn id="7" name="Mark" dataDxfId="2"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
+    <tableColumn id="2" name="Dato" dataDxfId="37"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="36"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="35"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="34"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="33"/>
+    <tableColumn id="7" name="Mark" dataDxfId="32"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="31"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1066,7 +1484,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3696,25 +4114,25 @@
         <v>42853</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3786,25 +4204,25 @@
         <v>42856</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3816,25 +4234,25 @@
         <v>42857</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3846,25 +4264,25 @@
         <v>42858</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3876,25 +4294,25 @@
         <v>42859</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3906,25 +4324,25 @@
         <v>42860</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4439,62 +4857,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I112">
-    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="57" priority="20" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="56" priority="21" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="55" priority="22" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="54" priority="23" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="53" priority="24" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="51" priority="14" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="49" priority="16" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="48" priority="17" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="47" priority="18" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",G64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="41" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="32">
   <si>
     <t>Mustafa</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Aftalt / OOP</t>
+  </si>
+  <si>
+    <t>Forsinket / 12:57</t>
   </si>
 </sst>
 </file>
@@ -278,422 +281,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -1162,20 +750,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="38">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="37"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="36"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="35"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="34"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="33"/>
-    <tableColumn id="7" name="Mark" dataDxfId="32"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="31"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="30"/>
+    <tableColumn id="2" name="Dato" dataDxfId="7"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
+    <tableColumn id="7" name="Mark" dataDxfId="2"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1481,10 +1069,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I95" sqref="I95"/>
+      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4414,25 +4002,25 @@
         <v>42863</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4857,62 +4445,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I112">
-    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="20" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="21" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="22" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="23" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="24" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="14" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="16" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="17" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="18" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",G64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1072,7 +1072,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4032,25 +4032,25 @@
         <v>42864</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="35">
   <si>
     <t>Mustafa</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Forsinket / 12:57</t>
+  </si>
+  <si>
+    <t>Forsinket / 09:23</t>
+  </si>
+  <si>
+    <t>Forsinket / 9:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kom ikke </t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1078,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
+      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4062,25 +4071,25 @@
         <v>42865</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -131,7 +131,7 @@
     <t>Forsinket / 9:39</t>
   </si>
   <si>
-    <t xml:space="preserve">Kom ikke </t>
+    <t>Forsinket / 11:10</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1081,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
+      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="37">
   <si>
     <t>Mustafa</t>
   </si>
@@ -128,10 +128,16 @@
     <t>Forsinket / 09:23</t>
   </si>
   <si>
-    <t>Forsinket / 9:39</t>
+    <t>Forsinket / 11:10</t>
   </si>
   <si>
-    <t>Forsinket / 11:10</t>
+    <t>Forsinket / 09:39</t>
+  </si>
+  <si>
+    <t>Forsinket / nogle min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forsinket  / nogle min </t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1084,10 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4077,16 +4083,16 @@
         <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>2</v>
@@ -4101,25 +4107,25 @@
         <v>42866</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mustafa/P2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa Noorzai\Documents\GitHub\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="14618"/>
   </bookViews>
   <sheets>
     <sheet name="Fremmøde Stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="32">
   <si>
     <t>Mustafa</t>
   </si>
@@ -119,31 +119,16 @@
     <t>Forsinket / 09:28</t>
   </si>
   <si>
-    <t>Aftalt / OOP</t>
+    <t>Forsinket</t>
   </si>
   <si>
-    <t>Forsinket / 12:57</t>
-  </si>
-  <si>
-    <t>Forsinket / 09:23</t>
-  </si>
-  <si>
-    <t>Forsinket / 11:10</t>
-  </si>
-  <si>
-    <t>Forsinket / 09:39</t>
-  </si>
-  <si>
-    <t>Forsinket / nogle min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forsinket  / nogle min </t>
+    <t>Forsinket / 10:13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d"/>
   </numFmts>
@@ -288,12 +273,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
@@ -1083,21 +1068,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="111" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="9" width="16.83203125" customWidth="1"/>
+    <col min="3" max="9" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1127,7 +1112,7 @@
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -1158,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -1188,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -1218,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -1248,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1278,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1308,7 +1293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1338,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1368,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1398,7 +1383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1428,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1458,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1488,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1518,7 +1503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1548,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1578,7 +1563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1608,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1638,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1668,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1698,7 +1683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1728,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1758,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1788,7 +1773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1818,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1848,7 +1833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1878,7 +1863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1908,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1938,7 +1923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1968,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1998,7 +1983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -2028,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -2058,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -2088,7 +2073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2118,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2148,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2178,7 +2163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2208,7 +2193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2238,7 +2223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2268,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2298,7 +2283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2328,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2358,7 +2343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2388,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2418,7 +2403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2448,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2478,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2508,7 +2493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2538,7 +2523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2568,7 +2553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2598,7 +2583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2628,7 +2613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2658,7 +2643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2688,7 +2673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2718,7 +2703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2748,7 +2733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2778,7 +2763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2808,7 +2793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2838,7 +2823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2868,7 +2853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2898,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2928,7 +2913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2958,7 +2943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2988,7 +2973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -3018,7 +3003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -3048,7 +3033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -3078,7 +3063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -3108,7 +3093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -3138,7 +3123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3168,7 +3153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3198,7 +3183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3228,7 +3213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3258,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3288,7 +3273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3318,7 +3303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3348,7 +3333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3378,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3408,7 +3393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3438,7 +3423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3468,7 +3453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3498,7 +3483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3528,7 +3513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3558,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3588,7 +3573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3618,7 +3603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3648,7 +3633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3678,7 +3663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3708,7 +3693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3726,19 +3711,19 @@
         <v>30</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3768,7 +3753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3798,7 +3783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3807,28 +3792,28 @@
         <v>42856</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3837,28 +3822,28 @@
         <v>42857</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3867,28 +3852,28 @@
         <v>42858</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3897,28 +3882,28 @@
         <v>42859</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3927,28 +3912,28 @@
         <v>42860</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3978,7 +3963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4008,7 +3993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4017,28 +4002,28 @@
         <v>42863</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4047,28 +4032,28 @@
         <v>42864</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4077,28 +4062,28 @@
         <v>42865</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4107,28 +4092,28 @@
         <v>42866</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4158,7 +4143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4188,7 +4173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4218,7 +4203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4248,7 +4233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4278,7 +4263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4308,7 +4293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4338,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4368,7 +4353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4398,7 +4383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>21</v>
@@ -4428,7 +4413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>21</v>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa Noorzai\Documents\GitHub\P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mustafa/P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="14618"/>
+    <workbookView xWindow="3160" yWindow="880" windowWidth="26940" windowHeight="19120"/>
   </bookViews>
   <sheets>
     <sheet name="Fremmøde Stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="39">
   <si>
     <t>Mustafa</t>
   </si>
@@ -119,16 +119,37 @@
     <t>Forsinket / 09:28</t>
   </si>
   <si>
-    <t>Forsinket</t>
+    <t>Aftalt / OOP</t>
+  </si>
+  <si>
+    <t>Forsinket / 12:57</t>
+  </si>
+  <si>
+    <t>Forsinket / 09:23</t>
+  </si>
+  <si>
+    <t>Forsinket / 11:10</t>
+  </si>
+  <si>
+    <t>Forsinket / 09:39</t>
+  </si>
+  <si>
+    <t>Forsinket / nogle min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forsinket  / nogle min </t>
   </si>
   <si>
     <t>Forsinket / 10:13</t>
+  </si>
+  <si>
+    <t>Aftalt / Aarbejde hjemmefra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d"/>
   </numFmts>
@@ -273,15 +294,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="41">
     <dxf>
       <font>
         <b val="0"/>
@@ -481,6 +502,172 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1068,21 +1255,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E92" sqref="E92"/>
+      <selection pane="bottomRight" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="9" width="16.796875" customWidth="1"/>
+    <col min="3" max="9" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1299,7 @@
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -1143,7 +1330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -1173,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -1203,7 +1390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>5</v>
@@ -1233,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1263,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1293,7 +1480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1323,7 +1510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1353,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1383,7 +1570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1413,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>6</v>
@@ -1443,7 +1630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1473,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1503,7 +1690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1533,7 +1720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1563,7 +1750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1593,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1623,7 +1810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>7</v>
@@ -1653,7 +1840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1683,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1713,7 +1900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1743,7 +1930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1773,7 +1960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1803,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1833,7 +2020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>8</v>
@@ -1863,7 +2050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1893,7 +2080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1923,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1953,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -1983,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -2013,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -2043,7 +2230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>9</v>
@@ -2073,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2103,7 +2290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2133,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2163,7 +2350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2193,7 +2380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2223,7 +2410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2253,7 +2440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>10</v>
@@ -2283,7 +2470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2313,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2343,7 +2530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2373,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2403,7 +2590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2433,7 +2620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2463,7 +2650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>11</v>
@@ -2493,7 +2680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2523,7 +2710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2553,7 +2740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2583,7 +2770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2613,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2643,7 +2830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2673,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>12</v>
@@ -2703,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2733,7 +2920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2763,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2793,7 +2980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2823,7 +3010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2853,7 +3040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2883,7 +3070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>13</v>
@@ -2913,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2943,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -2973,7 +3160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -3003,7 +3190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -3033,7 +3220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -3063,7 +3250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -3093,7 +3280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>14</v>
@@ -3123,7 +3310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3153,7 +3340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3183,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3213,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3243,7 +3430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3273,7 +3460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3303,7 +3490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>15</v>
@@ -3333,7 +3520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3363,7 +3550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3393,7 +3580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3423,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3453,7 +3640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3483,7 +3670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3513,7 +3700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>16</v>
@@ -3543,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3573,7 +3760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3603,7 +3790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3633,7 +3820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3663,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3693,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3711,19 +3898,19 @@
         <v>30</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>17</v>
@@ -3753,7 +3940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3783,7 +3970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3792,28 +3979,28 @@
         <v>42856</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3822,28 +4009,28 @@
         <v>42857</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3852,28 +4039,28 @@
         <v>42858</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3882,28 +4069,28 @@
         <v>42859</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3912,28 +4099,28 @@
         <v>42860</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>18</v>
@@ -3963,7 +4150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -3993,7 +4180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4002,28 +4189,28 @@
         <v>42863</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4032,28 +4219,28 @@
         <v>42864</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4062,28 +4249,28 @@
         <v>42865</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4092,28 +4279,28 @@
         <v>42866</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4122,28 +4309,28 @@
         <v>42867</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>19</v>
@@ -4173,7 +4360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4203,7 +4390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4212,28 +4399,28 @@
         <v>42870</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4242,28 +4429,28 @@
         <v>42871</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4293,7 +4480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4323,7 +4510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4353,7 +4540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>20</v>
@@ -4383,7 +4570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>21</v>
@@ -4413,7 +4600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <f>WEEKNUM(Table1[[#This Row],[Dato]])</f>
         <v>21</v>
@@ -4444,64 +4631,104 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I112">
-    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="Aftalt">
+  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I101 C103:I104 C106:I112">
+    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="39" priority="32" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="38" priority="33" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",G64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="25" priority="16" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(G64))))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="Ikke registreret">
+      <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102:I102">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Aftalt">
+      <formula>NOT(ISERROR(SEARCH("Aftalt",C102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Mødt">
+      <formula>NOT(ISERROR(SEARCH(("Mødt"),(C102))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Kom ikke">
+      <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C102))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="forsinket">
+      <formula>NOT(ISERROR(SEARCH(("forsinket"),(C102))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Weekend">
+      <formula>NOT(ISERROR(SEARCH(("Weekend"),(C102))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Ikke registreret">
+      <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C102))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105:I105">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
+      <formula>NOT(ISERROR(SEARCH("Aftalt",C105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
+      <formula>NOT(ISERROR(SEARCH(("Mødt"),(C105))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
+      <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C105))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
+      <formula>NOT(ISERROR(SEARCH(("forsinket"),(C105))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
+      <formula>NOT(ISERROR(SEARCH(("Weekend"),(C105))))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
-      <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C105))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mødeprotokol.xlsx
+++ b/Mødeprotokol.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="38">
   <si>
     <t>Mustafa</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Weekend</t>
-  </si>
-  <si>
-    <t>Ikke registreret</t>
   </si>
   <si>
     <t>Casper L</t>
@@ -198,7 +195,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +226,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -250,7 +253,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -258,8 +261,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -292,17 +297,603 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -937,20 +1528,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I112" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:I112"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Uge.Nr" dataDxfId="8">
+    <tableColumn id="1" name="Uge.Nr" dataDxfId="50">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[Dato]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Dato" dataDxfId="7"/>
-    <tableColumn id="3" name="Casper L" dataDxfId="6"/>
-    <tableColumn id="4" name="Casper S" dataDxfId="5"/>
-    <tableColumn id="5" name="Kasper" dataDxfId="4"/>
-    <tableColumn id="6" name="Lasse" dataDxfId="3"/>
-    <tableColumn id="7" name="Mark" dataDxfId="2"/>
-    <tableColumn id="8" name="Rasmus" dataDxfId="1"/>
-    <tableColumn id="9" name="Mustafa" dataDxfId="0"/>
+    <tableColumn id="2" name="Dato" dataDxfId="49"/>
+    <tableColumn id="3" name="Casper L" dataDxfId="48"/>
+    <tableColumn id="4" name="Casper S" dataDxfId="47"/>
+    <tableColumn id="5" name="Kasper" dataDxfId="46"/>
+    <tableColumn id="6" name="Lasse" dataDxfId="45"/>
+    <tableColumn id="7" name="Mark" dataDxfId="44"/>
+    <tableColumn id="8" name="Rasmus" dataDxfId="43"/>
+    <tableColumn id="9" name="Mustafa" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1259,7 +1850,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C107" sqref="C107"/>
+      <selection pane="bottomRight" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1271,28 +1862,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>0</v>
@@ -1459,25 +2050,25 @@
         <v>42772</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1669,25 +2260,25 @@
         <v>42779</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1735,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>2</v>
@@ -1747,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1768,7 +2359,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2</v>
@@ -1795,10 +2386,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>2</v>
@@ -1888,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>2</v>
@@ -1918,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>2</v>
@@ -1927,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1939,25 +2530,25 @@
         <v>42788</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -1972,19 +2563,19 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>2</v>
@@ -2005,11 +2596,11 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="G25" s="3" t="s">
         <v>2</v>
       </c>
@@ -2017,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2092,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>2</v>
@@ -2158,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>2</v>
@@ -2188,7 +2779,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>2</v>
@@ -2341,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2</v>
@@ -2389,25 +2980,25 @@
         <v>42803</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2524,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>2</v>
@@ -2545,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>2</v>
@@ -2605,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>2</v>
@@ -2719,25 +3310,25 @@
         <v>42814</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2824,7 +3415,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>2</v>
@@ -2854,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>2</v>
@@ -2989,25 +3580,25 @@
         <v>42823</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3019,25 +3610,25 @@
         <v>42824</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3139,25 +3730,25 @@
         <v>42828</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3439,25 +4030,25 @@
         <v>42838</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3469,25 +4060,25 @@
         <v>42839</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3559,25 +4150,25 @@
         <v>42842</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3604,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>2</v>
@@ -3637,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3667,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -3679,25 +4270,25 @@
         <v>42846</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3772,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>2</v>
@@ -3787,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3844,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>2</v>
@@ -3859,7 +4450,7 @@
         <v>42852</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>2</v>
@@ -3889,25 +4480,25 @@
         <v>42853</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3979,25 +4570,25 @@
         <v>42856</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4009,25 +4600,25 @@
         <v>42857</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4039,25 +4630,25 @@
         <v>42858</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4069,25 +4660,25 @@
         <v>42859</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4195,10 +4786,10 @@
         <v>2</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>2</v>
@@ -4249,22 +4840,22 @@
         <v>42865</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>2</v>
@@ -4282,10 +4873,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>2</v>
@@ -4309,22 +4900,22 @@
         <v>42867</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -4405,7 +4996,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>2</v>
@@ -4444,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>2</v>
@@ -4459,25 +5050,25 @@
         <v>42872</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4489,25 +5080,25 @@
         <v>42873</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4518,26 +5109,26 @@
       <c r="B109" s="2">
         <v>42874</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>5</v>
+      <c r="C109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4608,126 +5199,126 @@
       <c r="B112" s="2">
         <v>42877</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>5</v>
+      <c r="C112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I101 C103:I104 C106:I112">
-    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="Aftalt">
+  <conditionalFormatting sqref="C1:I22 C23 F23 C24:I51 C52:G52 I52 C53:I63 C64:F64 H64:I64 C65:I101 C103:I104 C106:I107 C110:I111 C108">
+    <cfRule type="containsText" dxfId="82" priority="31" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="32" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="81" priority="32" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="33" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="80" priority="33" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="79" priority="34" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="77" priority="36" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="76" priority="25" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",I23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="75" priority="26" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="74" priority="27" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="73" priority="28" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="72" priority="29" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(I23))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="71" priority="30" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(I23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",G64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="68" priority="15" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="16" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="67" priority="16" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(G64))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="65" priority="18" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(G64))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:I102">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C102))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C102))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="61" priority="10" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C102))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C102))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="59" priority="12" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C102))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:I105">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Aftalt">
+    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="Aftalt">
       <formula>NOT(ISERROR(SEARCH("Aftalt",C105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Mødt">
+    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="Mødt">
       <formula>NOT(ISERROR(SEARCH(("Mødt"),(C105))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Kom ikke">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="Kom ikke">
       <formula>NOT(ISERROR(SEARCH(("Kom ikke"),(C105))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="forsinket">
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="forsinket">
       <formula>NOT(ISERROR(SEARCH(("forsinket"),(C105))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Weekend">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Weekend">
       <formula>NOT(ISERROR(SEARCH(("Weekend"),(C105))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Ikke registreret">
+    <cfRule type="containsText" dxfId="53" priority="6" operator="containsText" text="Ikke registreret">
       <formula>NOT(ISERROR(SEARCH(("Ikke registreret"),(C105))))</formula>
     </cfRule>
   </conditionalFormatting>
